--- a/biology/Zoologie/Choerophryne_laurini/Choerophryne_laurini.xlsx
+++ b/biology/Zoologie/Choerophryne_laurini/Choerophryne_laurini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerophryne laurini est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerophryne laurini est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Papouasie en Indonésie. Elle n'est connue que dans sa localité type, dans les monts Wondiwoi, entre 800 et 950 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Papouasie en Indonésie. Elle n'est connue que dans sa localité type, dans les monts Wondiwoi, entre 800 et 950 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au roi Laurin de la chanson des Nibelungen[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au roi Laurin de la chanson des Nibelungen.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 2000 : Albericus laurini species nova, the first record of the genus Albericus (Anura, Microhylidae) from the west of New Guinea. Mitteilungen aus dem Museum für Naturkunde in Berlin, Zoologische Reihe, vol. 76, p. 167-174.</t>
         </is>
